--- a/popfile.xlsx
+++ b/popfile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Emerson_Lab_Work\SV-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D4D0E2-E113-44F5-8C02-FB023B2C05AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37000354-FFD8-4DE7-B792-B4EA54242734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{998BB713-2726-41F5-BCEF-EBDC7A73C421}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{998BB713-2726-41F5-BCEF-EBDC7A73C421}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="subset" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>A1_CLR_mumco</t>
   </si>
@@ -243,6 +244,99 @@
   <si>
     <t>SRR23269563_ONT_mumco</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv107_ONT</t>
+  </si>
+  <si>
+    <t>nv109_ONT</t>
+  </si>
+  <si>
+    <t>nv115_ONT</t>
+  </si>
+  <si>
+    <t>A1_CLR</t>
+  </si>
+  <si>
+    <t>A2_CLR</t>
+  </si>
+  <si>
+    <t>A6_CLR</t>
+  </si>
+  <si>
+    <t>B1_CLR</t>
+  </si>
+  <si>
+    <t>B4_CLR</t>
+  </si>
+  <si>
+    <t>B6_CLR</t>
+  </si>
+  <si>
+    <t>SRR12187578_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187579_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187580_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187581_ONT</t>
+  </si>
+  <si>
+    <t>A7_CLR</t>
+  </si>
+  <si>
+    <t>B3_CLR</t>
+  </si>
+  <si>
+    <t>A3_CLR</t>
+  </si>
+  <si>
+    <t>A5_CLR</t>
+  </si>
+  <si>
+    <t>SRR23269563_ONT</t>
+  </si>
+  <si>
+    <t>SRR23269564_ONT</t>
+  </si>
+  <si>
+    <t>SRR23269565_ONT</t>
+  </si>
+  <si>
+    <t>SRR23269571_ONT</t>
+  </si>
+  <si>
+    <t>SRR23269572_ONT</t>
+  </si>
+  <si>
+    <t>SRR23269573_ONT</t>
+  </si>
+  <si>
+    <t>SRR10200370_CLR</t>
+  </si>
+  <si>
+    <t>SRR10214519_CLR</t>
+  </si>
+  <si>
+    <t>SRR12187582_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187563_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187576_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187583_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187584_ONT</t>
+  </si>
+  <si>
+    <t>SRR12187585_ONT</t>
   </si>
 </sst>
 </file>
@@ -628,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0868CA80-2788-4B20-A234-B93BC940F409}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1158,4 +1252,277 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34574CDB-89AC-45FD-A804-71915239B193}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>